--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhaoJiance\Documents\GitHub\FastPlannerLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231BC234-A59B-4F54-9CAF-D22731696458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E13406-223E-41BE-A5D6-1E3F0857759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,15 +52,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>不理解的理论问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.根据论文采用了Receding-Horizon Local Planning(滚动时域规划)在前端有涉及，用于提高效率
 2.费拉里方法求解一元四次方程
 3.庞特里亚金原理求解两点边值问题
 4.前向积分
-5.哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不理解的理论问题</t>
+5.哈希表
+6.Reeds-Shepp 曲线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +436,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -459,11 +460,11 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -474,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="8"/>
     </row>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhaoJiance\Documents\GitHub\FastPlannerLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E13406-223E-41BE-A5D6-1E3F0857759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4002F932-2F5F-45E7-BBB6-A8E91F36DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,18 @@
 4.前向积分
 5.哈希表
 6.Reeds-Shepp 曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前端路径拟合获得控制点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_uniform_bspline.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现非均匀B样条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -479,6 +491,17 @@
       </c>
       <c r="E2" s="8"/>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhaoJiance\Documents\GitHub\FastPlannerLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4002F932-2F5F-45E7-BBB6-A8E91F36DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01712AE2-61A4-4304-9D85-6F6AD5007A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,15 +65,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.前端路径拟合获得控制点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non_uniform_bspline.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实现非均匀B样条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_uniform_bspline.h
+non_uniform_bspline.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前端路径拟合获得控制点的Ax=b求解(K. Qin, “General matrix representations for b-splines,” The Visual Computer, vol. 16, no. 3, pp. 177–186, 2000.)
+2.原论文对应理论部分公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -164,6 +166,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,20 +453,20 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="27.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="71.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,7 +481,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="97.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,15 +496,18 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhaoJiance\Documents\GitHub\FastPlannerLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01712AE2-61A4-4304-9D85-6F6AD5007A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEB4CC-1ABE-4A59-9AE7-4CCB2AC97BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个代码主要类函数的注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,6 +72,27 @@
   <si>
     <t>1.前端路径拟合获得控制点的Ax=b求解(K. Qin, “General matrix representations for b-splines,” The Visual Computer, vol. 16, no. 3, pp. 177–186, 2000.)
 2.原论文对应理论部分公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bspline_optimizer.h
+bspline_optimizer.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B样条优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要类函数的注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要类函数的注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.梯度优化B样条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,23 +467,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="71.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="27.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,11 +494,11 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="97.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="97.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -489,25 +506,39 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhaoJiance\Documents\GitHub\FastPlannerLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEB4CC-1ABE-4A59-9AE7-4CCB2AC97BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3207E60F-B172-40B7-9E44-A1FF67D6B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +473,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -537,7 +540,7 @@
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
